--- a/metrics/R2/Fallo Cardiaco.xlsx
+++ b/metrics/R2/Fallo Cardiaco.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9970892484001934</v>
+        <v>0.997067345684545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9970193399090599</v>
+        <v>0.9970746551599585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971486053091578</v>
+        <v>0.997079068646734</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9901282904338184</v>
+        <v>0.9900956381698381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9899641076353011</v>
+        <v>0.9907441122845427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9899959147682419</v>
+        <v>0.9904546537802541</v>
       </c>
     </row>
   </sheetData>
